--- a/01_Tasks/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/01_Tasks/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0069A10A-0D8D-449A-9787-38BB072A1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870AA18-C622-49A6-B1FD-A55F3BD95382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -1362,6 +1362,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,6 +1394,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1407,12 +1424,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1422,17 +1466,92 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1440,21 +1559,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,116 +1574,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,7 +1983,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:S10"/>
+      <selection activeCell="B11" sqref="B11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1993,12 +1993,12 @@
   <sheetData>
     <row r="1" spans="2:16">
       <c r="B1" s="10"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="2:16">
       <c r="B2" s="33" t="s">
@@ -2098,21 +2098,21 @@
       <c r="M10" s="37"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="2:16">
       <c r="C12" s="1"/>
@@ -2156,31 +2156,31 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" s="10"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="2:20">
       <c r="N4" s="36" t="s">
@@ -2188,49 +2188,49 @@
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="Q6" s="38" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="I8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
       <c r="T8" s="29">
         <v>9</v>
       </c>
@@ -2239,22 +2239,22 @@
       <c r="B9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="I9" s="32"/>
       <c r="K9" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
       <c r="T9" s="29" t="s">
         <v>77</v>
       </c>
@@ -2263,29 +2263,29 @@
       <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46"/>
-      <c r="Q10" s="53" t="s">
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+      <c r="Q10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="53" t="s">
+      <c r="R10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="53"/>
+      <c r="S10" s="50"/>
       <c r="T10" s="29" t="s">
         <v>78</v>
       </c>
@@ -2294,278 +2294,266 @@
       <c r="B11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="49"/>
-      <c r="Q13" s="38" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
+      <c r="Q13" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="49"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
       <c r="Q15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="54" t="s">
+      <c r="R15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="49"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
       <c r="Q16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
     </row>
     <row r="17" spans="9:20">
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
       <c r="Q17" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
     </row>
     <row r="18" spans="9:20">
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="49"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
       <c r="Q18" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
     </row>
     <row r="19" spans="9:20">
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
       <c r="Q19" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
     </row>
     <row r="20" spans="9:20">
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
       <c r="Q20" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="9:20">
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
       <c r="Q21" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="R21" s="42" t="s">
+      <c r="R21" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="9:20">
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
       <c r="Q22" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="42" t="s">
+      <c r="R22" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
     </row>
     <row r="23" spans="9:20">
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
       <c r="Q23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R23" s="42" t="s">
+      <c r="R23" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
     </row>
     <row r="24" spans="9:20">
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
       <c r="Q24" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R24" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
     </row>
     <row r="25" spans="9:20">
       <c r="Q25" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="R25" s="42" t="s">
+      <c r="R25" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="R25:T25"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
@@ -2582,6 +2570,18 @@
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2597,8 +2597,8 @@
   </sheetPr>
   <dimension ref="B1:AE26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2632,173 +2632,173 @@
   <sheetData>
     <row r="1" spans="2:31">
       <c r="B1" s="10"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="3" spans="2:31">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="5" spans="2:31">
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="2:31" ht="15.75">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
     </row>
     <row r="7" spans="2:31" ht="15.75" customHeight="1">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="61" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
     </row>
     <row r="8" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B8" s="55"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="95" t="s">
+      <c r="I8" s="68"/>
+      <c r="J8" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="60" t="s">
+      <c r="K8" s="65"/>
+      <c r="L8" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60" t="s">
+      <c r="M8" s="68"/>
+      <c r="N8" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60" t="s">
+      <c r="O8" s="68"/>
+      <c r="P8" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60" t="s">
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60" t="s">
+      <c r="S8" s="68"/>
+      <c r="T8" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60" t="s">
+      <c r="U8" s="68"/>
+      <c r="V8" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60" t="s">
+      <c r="W8" s="68"/>
+      <c r="X8" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60" t="s">
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60" t="s">
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60" t="s">
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="AE8" s="60"/>
+      <c r="AE8" s="68"/>
     </row>
     <row r="9" spans="2:31" ht="15.75">
-      <c r="B9" s="55"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="15.75">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -2976,10 +2976,10 @@
       <c r="B12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="40" t="s">
         <v>120</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -3176,18 +3176,18 @@
       <c r="B16" s="18"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
       <c r="N18" s="35" t="s">
         <v>20</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
     </row>
-    <row r="19" spans="2:20" ht="31.5">
+    <row r="19" spans="2:20" ht="15.75">
       <c r="B19" s="34" t="s">
         <v>49</v>
       </c>
@@ -3400,6 +3400,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="E6:AB6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="J8:K8"/>
@@ -3415,15 +3424,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3437,7 +3437,7 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3458,45 +3458,45 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="10"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B5" s="63"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3511,10 +3511,10 @@
       <c r="B6" s="19">
         <v>9</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="38" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -3531,7 +3531,7 @@
       <c r="B7" s="19">
         <v>10</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="12" t="s">
         <v>115</v>
       </c>
@@ -3549,17 +3549,17 @@
       <c r="B8" s="19">
         <v>11</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="40" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="B9" s="19">
         <v>12</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="12" t="s">
         <v>122</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="8" t="s">
         <v>1</v>
       </c>
@@ -3625,77 +3625,77 @@
       <c r="C13" s="75"/>
       <c r="D13" s="75"/>
       <c r="E13" s="75"/>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="94"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="74" t="s">
         <v>62</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
       <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="81" t="s">
+      <c r="L13" s="97"/>
+      <c r="M13" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="82"/>
+      <c r="N13" s="102"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="89" t="s">
+      <c r="H14" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="91" t="s">
+      <c r="K14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="79" t="s">
+      <c r="M14" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" s="84" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="83"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="86"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="85"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="23">
@@ -3707,7 +3707,7 @@
       <c r="D16" s="21">
         <v>2</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="42">
         <v>1</v>
       </c>
       <c r="F16" s="22">
@@ -3728,7 +3728,7 @@
       <c r="K16" s="24">
         <v>0</v>
       </c>
-      <c r="L16" s="109">
+      <c r="L16" s="43">
         <v>1</v>
       </c>
       <c r="M16" s="5" t="s">
@@ -3740,11 +3740,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
@@ -3755,15 +3756,14 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3771,6 +3771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3914,22 +3929,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3945,21 +3962,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>